--- a/dados.xlsx
+++ b/dados.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="6000" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>receitas</t>
   </si>
@@ -28,6 +29,15 @@
   </si>
   <si>
     <t>custos</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>revenue</t>
   </si>
 </sst>
 </file>
@@ -348,12 +358,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -364,7 +374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -372,7 +382,7 @@
         <v>3106.25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -380,7 +390,7 @@
         <v>1146.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -388,7 +398,7 @@
         <v>1146.25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -396,7 +406,7 @@
         <v>706.25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -404,7 +414,7 @@
         <v>646.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -412,7 +422,7 @@
         <v>646.25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -420,7 +430,7 @@
         <v>646.25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -434,4 +444,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3106.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1146.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1146.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>706.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>646.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>646.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>646.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>856.25</v>
+      </c>
+      <c r="C9">
+        <v>15750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7500" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>receitas</t>
   </si>
@@ -44,8 +46,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -73,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,13 +368,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -374,7 +385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -382,7 +393,7 @@
         <v>3106.25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -390,7 +401,7 @@
         <v>1146.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -398,7 +409,7 @@
         <v>1146.25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -406,7 +417,7 @@
         <v>706.25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -414,7 +425,7 @@
         <v>646.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -422,7 +433,7 @@
         <v>646.25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -430,7 +441,7 @@
         <v>646.25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -454,9 +465,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -467,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -475,7 +486,7 @@
         <v>3106.25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -483,7 +494,7 @@
         <v>1146.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -491,7 +502,7 @@
         <v>1146.25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -499,7 +510,7 @@
         <v>706.25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -507,7 +518,7 @@
         <v>646.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -515,7 +526,7 @@
         <v>646.25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -523,7 +534,7 @@
         <v>646.25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -532,6 +543,148 @@
       </c>
       <c r="C9">
         <v>15750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="9000" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
     <sheet name="Plan4" sheetId="4" r:id="rId4"/>
+    <sheet name="PLan5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>receitas</t>
   </si>
@@ -630,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -690,4 +691,79 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>